--- a/pearson_tables/t2m_netherlands-3-5.xlsx
+++ b/pearson_tables/t2m_netherlands-3-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6073782138369195</v>
+        <v>-0.5990164247158317</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6636728632759952</v>
+        <v>0.6519872051416672</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7143105563747436</v>
+        <v>-0.7361883853993072</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7124863545166836</v>
+        <v>-0.7088104133122732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.595081639683003</v>
+        <v>0.7076565324976303</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6300880795099688</v>
+        <v>0.6326077162823311</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7583650815024364</v>
+        <v>0.744770647955053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5257230801341541</v>
+        <v>-0.5465145445234002</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8139644728660275</v>
+        <v>-0.8296348842292615</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7172149774763242</v>
+        <v>0.6801305272088517</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7148260104104364</v>
+        <v>-0.7344895769520807</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8032398099318567</v>
+        <v>0.8250443118658586</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6652728059206375</v>
+        <v>0.6440322597549629</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6047934559279147</v>
+        <v>0.6146163731836789</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6417715218948099</v>
+        <v>-0.6407777576641157</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6977822647878993</v>
+        <v>0.6521810734325758</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7309089984129221</v>
+        <v>0.6913387624508864</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7259912099197541</v>
+        <v>0.7207719602344737</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6736057706718565</v>
+        <v>-0.6793870527162835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6540900076222326</v>
+        <v>-0.6686907473491526</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6343764558496501</v>
+        <v>0.6454434791267544</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.739000429076585</v>
+        <v>-0.7349716221433342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5841963453357688</v>
+        <v>0.6061008255280288</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6185740391036921</v>
+        <v>0.6230625624320384</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-5.xlsx
+++ b/pearson_tables/t2m_netherlands-3-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5990164247158317</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6519872051416672</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7361883853993072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7088104133122732</v>
+        <v>0.770173668851462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7076565324976303</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6326077162823311</v>
+        <v>-0.6961419073433766</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.744770647955053</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5465145445234002</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8296348842292615</v>
+        <v>-0.7579308124743087</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6801305272088517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7344895769520807</v>
+        <v>-0.6950419217015434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8250443118658586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6440322597549629</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6146163731836789</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6407777576641157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6521810734325758</v>
+        <v>-0.8830107338985754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6913387624508864</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7207719602344737</v>
+        <v>0.77232977548935</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6793870527162835</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6686907473491526</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6454434791267544</v>
+        <v>-0.6627523733933205</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7349716221433342</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6061008255280288</v>
+        <v>-0.6647337829335498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6230625624320384</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
